--- a/biology/Zoologie/Fourmi_pharaon/Fourmi_pharaon.xlsx
+++ b/biology/Zoologie/Fourmi_pharaon/Fourmi_pharaon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Monomorium pharaonis
 La Fourmi pharaon, Monomorium pharaonis, est une espèce de petits insectes de la famille des Formicidés.
@@ -516,9 +528,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Monomorium pharaonis a été décrite pour la première fois par Carl Von Linné en 1758[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Monomorium pharaonis a été décrite pour la première fois par Carl Von Linné en 1758.
 </t>
         </is>
       </c>
@@ -547,9 +561,11 @@
           <t>Taille des spécimens</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les ouvrières de cette espèce sont des femelles stériles qui mesurent entre 1,5 et 2,5 mm de long. Les reines, plus grosses et plus foncées, mesurent entre 3,5 et 5 mm[2]. On compte plusieurs reines dans une même colonie, ainsi c'est une espèce polygyne. Les mâles mesurent environ 2,8 mm. Les reines et les mâles adultes portent des ailes à l'émergence[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les ouvrières de cette espèce sont des femelles stériles qui mesurent entre 1,5 et 2,5 mm de long. Les reines, plus grosses et plus foncées, mesurent entre 3,5 et 5 mm. On compte plusieurs reines dans une même colonie, ainsi c'est une espèce polygyne. Les mâles mesurent environ 2,8 mm. Les reines et les mâles adultes portent des ailes à l'émergence.
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On trouve cette fourmi presque partout dans le monde. Probablement originaire d'Afrique tropicale, elle aurait été introduite en Amérique du Nord à partir de l'Europe[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On trouve cette fourmi presque partout dans le monde. Probablement originaire d'Afrique tropicale, elle aurait été introduite en Amérique du Nord à partir de l'Europe.
 </t>
         </is>
       </c>
@@ -609,9 +627,11 @@
           <t>Méthode pour retrouver leur colonie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon une étude publié dans Nature, cette espèce se remet à la géométrie pour retrouver leur chemin[3]. En effet, deux chercheurs en informatique et un entomologiste de l'université de Sheffield (situé en Grande-Bretagne) ont analysé la manière dont ces fourmis retrouvent leur chemin[3]. Couramment, les fourmis (certaines d'entre elles privées de vue) utilisent des phéromones. Néanmoins, En 1993, une autre étude espagnole avait montré que les réseaux de quatre espèces de fourmis présentaient invariablement un angle entre deux nouveaux embranchements compris entre 50° et 60°. Il en est de même pour les pistes de phéromones des fourmis pharaons. Francis Ratnieks, l’entomologiste qui a dirigé l'étude a déclaré que : « C'est la régularité de cet angle qui nous a fait penser que les fourmis pourraient s'en servir pour distinguer le bon chemin, celui qui leur permet de se rendre au nid de celui qui les en écarte »[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon une étude publié dans Nature, cette espèce se remet à la géométrie pour retrouver leur chemin. En effet, deux chercheurs en informatique et un entomologiste de l'université de Sheffield (situé en Grande-Bretagne) ont analysé la manière dont ces fourmis retrouvent leur chemin. Couramment, les fourmis (certaines d'entre elles privées de vue) utilisent des phéromones. Néanmoins, En 1993, une autre étude espagnole avait montré que les réseaux de quatre espèces de fourmis présentaient invariablement un angle entre deux nouveaux embranchements compris entre 50° et 60°. Il en est de même pour les pistes de phéromones des fourmis pharaons. Francis Ratnieks, l’entomologiste qui a dirigé l'étude a déclaré que : « C'est la régularité de cet angle qui nous a fait penser que les fourmis pourraient s'en servir pour distinguer le bon chemin, celui qui leur permet de se rendre au nid de celui qui les en écarte ».
 </t>
         </is>
       </c>
